--- a/docs/plantillas/Plantilla_Beneficios.xlsx
+++ b/docs/plantillas/Plantilla_Beneficios.xlsx
@@ -93,17 +93,17 @@
     <t>Nombre del responsable de la entrega:</t>
   </si>
   <si>
-    <t>G7</t>
+    <t>C7</t>
   </si>
   <si>
-    <t>C7</t>
+    <t>H7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,6 +162,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -541,7 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -589,13 +602,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,9 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,12 +650,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -671,6 +680,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -942,17 +956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -970,21 +984,21 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1002,19 +1016,19 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1032,17 +1046,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1064,53 +1078,53 @@
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="17"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1127,54 +1141,54 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-    </row>
-    <row r="8" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1191,38 +1205,38 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="26" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="1"/>
@@ -1242,17 +1256,17 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1270,17 +1284,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1298,17 +1312,17 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1326,17 +1340,17 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1354,17 +1368,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1382,17 +1396,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1410,17 +1424,17 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1438,17 +1452,17 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1466,17 +1480,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1494,17 +1508,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1522,17 +1536,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1550,17 +1564,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1578,17 +1592,17 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1606,17 +1620,17 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1634,17 +1648,17 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1662,17 +1676,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="40"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1690,17 +1704,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1718,17 +1732,17 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1746,17 +1760,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1774,17 +1788,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="40"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1802,17 +1816,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>

--- a/docs/plantillas/Plantilla_Beneficios.xlsx
+++ b/docs/plantillas/Plantilla_Beneficios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PERSONAL\JUAN\CORPOCEMPED\ProyectoSistemas\SistemaCORPOCEMPED\public\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Documents\SISTEMAS\SistemaCORPOCEMPED\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84734302-D6BA-4566-AB15-5CA81F274ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMATO" sheetId="1" r:id="rId1"/>
@@ -102,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,21 +162,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -548,19 +555,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="57">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -620,47 +624,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,11 +648,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +724,13 @@
     <xdr:ext cx="752475" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -932,11 +948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -956,17 +972,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -984,21 +1000,21 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1016,19 +1032,19 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1046,17 +1062,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1073,12 +1089,12 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="50" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4"/>
@@ -1087,44 +1103,44 @@
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="16"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1142,53 +1158,53 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="38" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="10.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="16"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1206,37 +1222,37 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="1"/>
@@ -1256,17 +1272,17 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1284,17 +1300,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1312,17 +1328,17 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1340,17 +1356,17 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1368,17 +1384,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1396,17 +1412,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1424,17 +1440,17 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1452,17 +1468,17 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1480,17 +1496,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1508,17 +1524,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1536,17 +1552,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1564,17 +1580,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1592,17 +1608,17 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1620,17 +1636,17 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1648,17 +1664,17 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1676,17 +1692,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1704,17 +1720,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1732,17 +1748,17 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1760,17 +1776,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1788,17 +1804,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1816,17 +1832,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>

--- a/docs/plantillas/Plantilla_Beneficios.xlsx
+++ b/docs/plantillas/Plantilla_Beneficios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Documents\SISTEMAS\SistemaCORPOCEMPED\public\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PERSONAL\JUAN\CORPOCEMPED\ProyectoSistemas\SistemaCORPOCEMPED\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84734302-D6BA-4566-AB15-5CA81F274ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="FORMATO" sheetId="1" r:id="rId1"/>
@@ -103,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -555,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +629,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,50 +665,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,11 +941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -972,17 +965,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1000,21 +993,21 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1032,19 +1025,19 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1062,17 +1055,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1094,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="4"/>
@@ -1103,13 +1096,13 @@
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="7"/>
@@ -1162,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="18"/>
@@ -1171,7 +1164,7 @@
       <c r="G7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="30" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="20"/>
@@ -1272,17 +1265,17 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1300,17 +1293,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1328,17 +1321,17 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1356,17 +1349,17 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1384,17 +1377,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1412,17 +1405,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1440,17 +1433,17 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1468,17 +1461,17 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1496,17 +1489,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1524,17 +1517,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1552,17 +1545,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1580,17 +1573,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1608,17 +1601,17 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1636,17 +1629,17 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1664,17 +1657,17 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1692,17 +1685,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1720,17 +1713,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="49"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1748,17 +1741,17 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1776,17 +1769,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1804,17 +1797,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1832,17 +1825,17 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
